--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.1045723771709</v>
+        <v>326.6913742182054</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.9338744369061</v>
+        <v>446.9935508115894</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.0510625608385</v>
+        <v>404.3331136815194</v>
       </c>
       <c r="AD2" t="n">
-        <v>290104.5723771709</v>
+        <v>326691.3742182054</v>
       </c>
       <c r="AE2" t="n">
-        <v>396933.8744369061</v>
+        <v>446993.5508115894</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.572794421976723e-06</v>
+        <v>4.76034327536021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.906575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>359051.0625608385</v>
+        <v>404333.1136815193</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.9808292666844</v>
+        <v>161.3720304940404</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.4232137702766</v>
+        <v>220.7963313533817</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.5358052982268</v>
+        <v>199.7238393786757</v>
       </c>
       <c r="AD3" t="n">
-        <v>136980.8292666844</v>
+        <v>161372.0304940404</v>
       </c>
       <c r="AE3" t="n">
-        <v>187423.2137702766</v>
+        <v>220796.3313533817</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.008857384831419e-06</v>
+        <v>7.417435738646443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.790690104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>169535.8052982268</v>
+        <v>199723.8393786757</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.690688667494</v>
+        <v>160.0818898948501</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.6579864854791</v>
+        <v>219.0311040685843</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.9390488279778</v>
+        <v>198.1270829084267</v>
       </c>
       <c r="AD4" t="n">
-        <v>135690.688667494</v>
+        <v>160081.8898948501</v>
       </c>
       <c r="AE4" t="n">
-        <v>185657.9864854791</v>
+        <v>219031.1040685842</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.041535496592627e-06</v>
+        <v>7.47789880100586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.759765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>167939.0488279778</v>
+        <v>198127.0829084267</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.0727489180147</v>
+        <v>232.2785444615943</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.6436293055775</v>
+        <v>317.8137519383611</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.9092197719427</v>
+        <v>287.4820535078605</v>
       </c>
       <c r="AD2" t="n">
-        <v>197072.7489180147</v>
+        <v>232278.5444615943</v>
       </c>
       <c r="AE2" t="n">
-        <v>269643.6293055775</v>
+        <v>317813.7519383611</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210996765928074e-06</v>
+        <v>6.120655396691776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>243909.2197719427</v>
+        <v>287482.0535078605</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7374907597532</v>
+        <v>152.2649150251873</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1443143546707</v>
+        <v>208.3355741913248</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.333348212808</v>
+        <v>188.452319391379</v>
       </c>
       <c r="AD3" t="n">
-        <v>128737.4907597532</v>
+        <v>152264.9150251873</v>
       </c>
       <c r="AE3" t="n">
-        <v>176144.3143546707</v>
+        <v>208335.5741913248</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098331020359754e-06</v>
+        <v>7.812051430062428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.836263020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>159333.348212808</v>
+        <v>188452.319391379</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.671696941781</v>
+        <v>154.6839227787341</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8955129347313</v>
+        <v>211.6453673188161</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.4402218757565</v>
+        <v>191.4462305081074</v>
       </c>
       <c r="AD2" t="n">
-        <v>133671.696941781</v>
+        <v>154683.9227787341</v>
       </c>
       <c r="AE2" t="n">
-        <v>182895.5129347313</v>
+        <v>211645.3673188161</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.871089184897492e-06</v>
+        <v>8.244406888433153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>165440.2218757565</v>
+        <v>191446.2305081074</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.143304330286</v>
+        <v>155.0016450766659</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.1725428526474</v>
+        <v>212.0800889837646</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.7862510436115</v>
+        <v>191.839462947489</v>
       </c>
       <c r="AD2" t="n">
-        <v>133143.304330286</v>
+        <v>155001.6450766659</v>
       </c>
       <c r="AE2" t="n">
-        <v>182172.5428526474</v>
+        <v>212080.0889837646</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.056588088529581e-06</v>
+        <v>8.23627631065798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.137369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164786.2510436116</v>
+        <v>191839.4629474891</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6979934712592</v>
+        <v>167.791059573797</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.0869106428841</v>
+        <v>229.5791301278769</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.8000195219452</v>
+        <v>207.6684201648714</v>
       </c>
       <c r="AD2" t="n">
-        <v>147697.9934712592</v>
+        <v>167791.059573797</v>
       </c>
       <c r="AE2" t="n">
-        <v>202086.9106428841</v>
+        <v>229579.1301278769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.613571100858174e-06</v>
+        <v>8.046717024300927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.042317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182800.0195219452</v>
+        <v>207668.4201648714</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.2796557380495</v>
+        <v>251.0342059017839</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.9740518514047</v>
+        <v>343.4760753622005</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.2951247976216</v>
+        <v>310.695200801434</v>
       </c>
       <c r="AD2" t="n">
-        <v>227279.6557380495</v>
+        <v>251034.2059017839</v>
       </c>
       <c r="AE2" t="n">
-        <v>310974.0518514047</v>
+        <v>343476.0753622005</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03244929801209e-06</v>
+        <v>5.733644959622059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>281295.1247976216</v>
+        <v>310695.200801434</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.7551190613134</v>
+        <v>154.5095797164967</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.9049224083425</v>
+        <v>211.40682344959</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.830487708376</v>
+        <v>191.2304529309617</v>
       </c>
       <c r="AD3" t="n">
-        <v>130755.1190613134</v>
+        <v>154509.5797164967</v>
       </c>
       <c r="AE3" t="n">
-        <v>178904.9224083425</v>
+        <v>211406.82344959</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074055095208124e-06</v>
+        <v>7.703075357987239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.8232421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>161830.487708376</v>
+        <v>191230.4529309617</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.7142390659655</v>
+        <v>182.1130060203614</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.9503591666948</v>
+        <v>249.1750490957407</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.008430151556</v>
+        <v>225.3941321294935</v>
       </c>
       <c r="AD2" t="n">
-        <v>152714.2390659655</v>
+        <v>182113.0060203614</v>
       </c>
       <c r="AE2" t="n">
-        <v>208950.3591666948</v>
+        <v>249175.0490957407</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389117791908612e-06</v>
+        <v>7.769778755409567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189008.430151556</v>
+        <v>225394.1321294935</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3073539842784</v>
+        <v>174.0126839715716</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.0253969305423</v>
+        <v>238.0918311076046</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.2671836095199</v>
+        <v>215.3686809107474</v>
       </c>
       <c r="AD2" t="n">
-        <v>151307.3539842785</v>
+        <v>174012.6839715716</v>
       </c>
       <c r="AE2" t="n">
-        <v>207025.3969305423</v>
+        <v>238091.8311076046</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.804793822939425e-06</v>
+        <v>7.457343310961068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.256184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>187267.1836095199</v>
+        <v>215368.6809107474</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.9163862419919</v>
+        <v>147.7069675753056</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.9161105782384</v>
+        <v>202.0991894079499</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.6041168669666</v>
+        <v>182.8111264189064</v>
       </c>
       <c r="AD3" t="n">
-        <v>124916.3862419919</v>
+        <v>147706.9675753055</v>
       </c>
       <c r="AE3" t="n">
-        <v>170916.1105782384</v>
+        <v>202099.1894079499</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.108906652434191e-06</v>
+        <v>8.053400253951521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.942057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154604.1168669666</v>
+        <v>182811.1264189064</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.0573370594503</v>
+        <v>215.909628002892</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.7306362505954</v>
+        <v>295.4170782939481</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.0875720190422</v>
+        <v>267.2228869621343</v>
       </c>
       <c r="AD2" t="n">
-        <v>181057.3370594503</v>
+        <v>215909.628002892</v>
       </c>
       <c r="AE2" t="n">
-        <v>247730.6362505954</v>
+        <v>295417.0782939481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391066131799025e-06</v>
+        <v>6.520013300291316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.679361979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>224087.5720190422</v>
+        <v>267222.8869621343</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.9276141119095</v>
+        <v>151.2193686439183</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.0362053958554</v>
+        <v>206.9050115062224</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.330995617781</v>
+        <v>187.158287601135</v>
       </c>
       <c r="AD3" t="n">
-        <v>127927.6141119095</v>
+        <v>151219.3686439183</v>
       </c>
       <c r="AE3" t="n">
-        <v>175036.2053958554</v>
+        <v>206905.0115062224</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.093772178892835e-06</v>
+        <v>7.871108382243055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.876953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>158330.995617781</v>
+        <v>187158.287601135</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.5394352963034</v>
+        <v>302.8180016144121</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.6910142623878</v>
+        <v>414.3289491962126</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.885415708238</v>
+        <v>374.7859757992577</v>
       </c>
       <c r="AD2" t="n">
-        <v>266539.4352963034</v>
+        <v>302818.0016144121</v>
       </c>
       <c r="AE2" t="n">
-        <v>364691.0142623878</v>
+        <v>414328.9491962126</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722671877378818e-06</v>
+        <v>5.072131202630472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.626627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>329885.415708238</v>
+        <v>374785.9757992577</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.8763192246179</v>
+        <v>158.0620301033566</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.1754861694066</v>
+        <v>216.2674427919394</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.6934748578594</v>
+        <v>195.627181585201</v>
       </c>
       <c r="AD3" t="n">
-        <v>133876.3192246179</v>
+        <v>158062.0301033566</v>
       </c>
       <c r="AE3" t="n">
-        <v>183175.4861694066</v>
+        <v>216267.4427919394</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.049750900639057e-06</v>
+        <v>7.544378768765705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.782552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>165693.4748578594</v>
+        <v>195627.1815852009</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.5719588392738</v>
+        <v>157.7576697180126</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.7590468627465</v>
+        <v>215.8510034852793</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.3167799341505</v>
+        <v>195.2504866614921</v>
       </c>
       <c r="AD4" t="n">
-        <v>133571.9588392738</v>
+        <v>157757.6697180126</v>
       </c>
       <c r="AE4" t="n">
-        <v>182759.0468627465</v>
+        <v>215851.0034852793</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.065467672278265e-06</v>
+        <v>7.573657922268618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.767903645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>165316.7799341505</v>
+        <v>195250.4866614921</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.3839849214038</v>
+        <v>156.539700553601</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.8700967723786</v>
+        <v>214.184524341525</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.321792799776</v>
+        <v>193.743053948299</v>
       </c>
       <c r="AD2" t="n">
-        <v>134383.9849214038</v>
+        <v>156539.700553601</v>
       </c>
       <c r="AE2" t="n">
-        <v>183870.0967723786</v>
+        <v>214184.524341525</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.069758219110428e-06</v>
+        <v>8.157819585551317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.072265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>166321.792799776</v>
+        <v>193743.053948299</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.0383925337616</v>
+        <v>157.1941081659589</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.7654861380324</v>
+        <v>215.0799137071788</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.131727461059</v>
+        <v>194.552988609582</v>
       </c>
       <c r="AD3" t="n">
-        <v>135038.3925337616</v>
+        <v>157194.1081659588</v>
       </c>
       <c r="AE3" t="n">
-        <v>184765.4861380324</v>
+        <v>215079.9137071788</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.066398316647939e-06</v>
+        <v>8.151084669952317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>167131.727461059</v>
+        <v>194552.988609582</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7929907190542</v>
+        <v>153.9982373867775</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.6932283150146</v>
+        <v>210.7071823152369</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.352681612728</v>
+        <v>190.5975845645187</v>
       </c>
       <c r="AD2" t="n">
-        <v>132792.9907190542</v>
+        <v>153998.2373867775</v>
       </c>
       <c r="AE2" t="n">
-        <v>181693.2283150145</v>
+        <v>210707.1823152369</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958286045911945e-06</v>
+        <v>8.280981951011739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3603515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>164352.681612728</v>
+        <v>190597.5845645186</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.972762699224</v>
+        <v>165.683577453334</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.6756885030341</v>
+        <v>226.6955801151117</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.0504999863132</v>
+        <v>205.0600721182356</v>
       </c>
       <c r="AD2" t="n">
-        <v>134972.762699224</v>
+        <v>165683.577453334</v>
       </c>
       <c r="AE2" t="n">
-        <v>184675.6885030342</v>
+        <v>226695.5801151117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.764541794829032e-06</v>
+        <v>8.183570901556253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.742838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>167050.4999863132</v>
+        <v>205060.0721182356</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.0859486552471</v>
+        <v>201.5378293323478</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.8238309631333</v>
+        <v>275.7529493139103</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.2216969204147</v>
+        <v>249.4354748531667</v>
       </c>
       <c r="AD2" t="n">
-        <v>173085.948655247</v>
+        <v>201537.8293323478</v>
       </c>
       <c r="AE2" t="n">
-        <v>236823.8309631333</v>
+        <v>275752.9493139103</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03429162325523e-06</v>
+        <v>7.217144441104738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.316731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214221.6969204147</v>
+        <v>249435.4748531667</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.2384490924782</v>
+        <v>188.1997103487645</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.0865358541118</v>
+        <v>257.5031464843011</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.5091541867065</v>
+        <v>232.9274075918504</v>
       </c>
       <c r="AD2" t="n">
-        <v>165238.4490924783</v>
+        <v>188199.7103487646</v>
       </c>
       <c r="AE2" t="n">
-        <v>226086.5358541118</v>
+        <v>257503.1464843011</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.596661969300145e-06</v>
+        <v>6.97960379236779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.456380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204509.1541867065</v>
+        <v>232927.4075918504</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.5043217001045</v>
+        <v>149.5508343024114</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0887939267953</v>
+        <v>204.6220492096337</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.5694423661182</v>
+        <v>185.0932080219743</v>
       </c>
       <c r="AD3" t="n">
-        <v>126504.3217001045</v>
+        <v>149550.8343024114</v>
       </c>
       <c r="AE3" t="n">
-        <v>173088.7939267953</v>
+        <v>204622.0492096337</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098695830688643e-06</v>
+        <v>7.953839756924125e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.9111328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>156569.4423661182</v>
+        <v>185093.2080219743</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.593454574211</v>
+        <v>281.3833544859953</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.0317993668108</v>
+        <v>385.0011193652206</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.961396058935</v>
+        <v>348.257152885468</v>
       </c>
       <c r="AD2" t="n">
-        <v>245593.454574211</v>
+        <v>281383.3544859953</v>
       </c>
       <c r="AE2" t="n">
-        <v>336031.7993668108</v>
+        <v>385001.1193652207</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.877033118409615e-06</v>
+        <v>5.398442586662263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.367838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>303961.396058935</v>
+        <v>348257.152885468</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.7825538859018</v>
+        <v>155.7562152941504</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.310704062569</v>
+        <v>213.112525244615</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1021035345505</v>
+        <v>192.7733649406376</v>
       </c>
       <c r="AD3" t="n">
-        <v>131782.5538859018</v>
+        <v>155756.2152941504</v>
       </c>
       <c r="AE3" t="n">
-        <v>180310.704062569</v>
+        <v>213112.525244615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.075369889280932e-06</v>
+        <v>7.646992391542895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>163102.1035345505</v>
+        <v>192773.3649406376</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.7999259569114</v>
+        <v>251.3554464638239</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.8987349980391</v>
+        <v>343.9156108713167</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.8494522193782</v>
+        <v>311.0927876584523</v>
       </c>
       <c r="AD2" t="n">
-        <v>214799.9259569114</v>
+        <v>251355.4464638238</v>
       </c>
       <c r="AE2" t="n">
-        <v>293898.7349980391</v>
+        <v>343915.6108713167</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.463936336464729e-06</v>
+        <v>6.162117790523659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.055013020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>265849.4522193782</v>
+        <v>311092.7876584523</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0116877297419</v>
+        <v>154.5543303324069</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.9924592132684</v>
+        <v>211.468053216536</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.6233543340259</v>
+        <v>191.285839014887</v>
       </c>
       <c r="AD2" t="n">
-        <v>133011.6877297419</v>
+        <v>154554.3303324069</v>
       </c>
       <c r="AE2" t="n">
-        <v>181992.4592132684</v>
+        <v>211468.053216536</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009178563155946e-06</v>
+        <v>8.256035095753007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.2431640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>164623.3543340259</v>
+        <v>191285.839014887</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.1592200296278</v>
+        <v>162.596583341154</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.7720282328378</v>
+        <v>222.4718185822606</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.469575012082</v>
+        <v>201.2394204579921</v>
       </c>
       <c r="AD2" t="n">
-        <v>140159.2200296278</v>
+        <v>162596.583341154</v>
       </c>
       <c r="AE2" t="n">
-        <v>191772.0282328379</v>
+        <v>222471.8185822606</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.985657110336285e-06</v>
+        <v>7.896320542012504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.109700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173469.575012082</v>
+        <v>201239.4204579921</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.0728329807426</v>
+        <v>158.5101962922688</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.1808531938828</v>
+        <v>216.8806435433056</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.4120138715796</v>
+        <v>196.1818593174896</v>
       </c>
       <c r="AD3" t="n">
-        <v>136072.8329807426</v>
+        <v>158510.1962922688</v>
       </c>
       <c r="AE3" t="n">
-        <v>186180.8531938828</v>
+        <v>216880.6435433056</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.081952840065946e-06</v>
+        <v>8.087100111785439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.012044270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>168412.0138715796</v>
+        <v>196181.8593174896</v>
       </c>
     </row>
   </sheetData>
